--- a/output/DIVIDEND/rebalance/rebalance_20250331.xlsx
+++ b/output/DIVIDEND/rebalance/rebalance_20250331.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23.31%</t>
+          <t>23.32%</t>
         </is>
       </c>
     </row>
@@ -5796,13 +5796,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02227175492336347</v>
+        <v>0.022257296523356</v>
       </c>
       <c r="C2" t="n">
         <v>0.0232924008435948</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001020645920231333</v>
+        <v>0.001035104320238806</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01923805872751383</v>
+        <v>0.01922662365619949</v>
       </c>
       <c r="C3" t="n">
         <v>0.02306279338730526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00382473465979143</v>
+        <v>0.003836169731105767</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -5838,13 +5838,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02305465957156097</v>
+        <v>0.02304122059228741</v>
       </c>
       <c r="C4" t="n">
         <v>0.02301176950812981</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.289006343115992e-05</v>
+        <v>-2.945108415760081e-05</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -5880,13 +5880,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01728708458187472</v>
+        <v>0.01727573216593702</v>
       </c>
       <c r="C6" t="n">
         <v>0.02263759439417648</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005350509812301757</v>
+        <v>0.005361862228239457</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01939054007405454</v>
+        <v>0.0193770013262174</v>
       </c>
       <c r="C9" t="n">
         <v>0.02207633172324648</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00268579164919194</v>
+        <v>0.002699330397029083</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -5964,13 +5964,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02487362593071686</v>
+        <v>0.0248546946336715</v>
       </c>
       <c r="C10" t="n">
         <v>0.02195727600517042</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.002916349925546444</v>
+        <v>-0.00289741862850108</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -5985,13 +5985,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02382457726733582</v>
+        <v>0.0238069628733673</v>
       </c>
       <c r="C11" t="n">
         <v>0.02173617252874345</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.002088404738592366</v>
+        <v>-0.002070790344623843</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6006,13 +6006,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02162676256786387</v>
+        <v>0.02161034138510264</v>
       </c>
       <c r="C12" t="n">
         <v>0.02143002925369073</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0001967333141731469</v>
+        <v>-0.000180312131411911</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6027,13 +6027,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02288493971055298</v>
+        <v>0.0228681296250417</v>
       </c>
       <c r="C13" t="n">
         <v>0.02137900537451528</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.001505934336037702</v>
+        <v>-0.001489124250526424</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6090,13 +6090,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02149320032654111</v>
+        <v>0.02147830225884421</v>
       </c>
       <c r="C16" t="n">
         <v>0.02103884618001225</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0004543541465288625</v>
+        <v>-0.0004394560788319596</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6111,13 +6111,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02403968762318203</v>
+        <v>0.02402152504995931</v>
       </c>
       <c r="C17" t="n">
         <v>0.02091979046193619</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.003119897161245843</v>
+        <v>-0.003101734588023125</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6153,13 +6153,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0221157375109188</v>
+        <v>0.02209878110031049</v>
       </c>
       <c r="C19" t="n">
         <v>0.02081774270358528</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.00129799480733352</v>
+        <v>-0.001281038396725206</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6174,13 +6174,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0228440323050099</v>
+        <v>0.02282707811165751</v>
       </c>
       <c r="C20" t="n">
         <v>0.02073270290495952</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.002111329400050377</v>
+        <v>-0.002094375206697988</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6195,13 +6195,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02245939248618313</v>
+        <v>0.02244300097275179</v>
       </c>
       <c r="C21" t="n">
         <v>0.02056262330770801</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.001896769178475123</v>
+        <v>-0.001880377665043786</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6216,13 +6216,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02011174979111735</v>
+        <v>0.02009809378890521</v>
       </c>
       <c r="C22" t="n">
         <v>0.02030750391183074</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0001957541207133831</v>
+        <v>0.0002094101229255275</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6258,13 +6258,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01944800815621944</v>
+        <v>0.01943382615639797</v>
       </c>
       <c r="C24" t="n">
         <v>0.02017144023402953</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0007234320778100843</v>
+        <v>0.0007376140776315585</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02037950477360102</v>
+        <v>0.02036537601387668</v>
       </c>
       <c r="C25" t="n">
         <v>0.01998435267705286</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0003951520965481611</v>
+        <v>-0.00038102333682382</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6300,13 +6300,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01972497111626431</v>
+        <v>0.01971030257012182</v>
       </c>
       <c r="C26" t="n">
         <v>0.01984828899925165</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0001233178829873408</v>
+        <v>0.0001379864291298355</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6321,13 +6321,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01537561108733883</v>
+        <v>0.01536559736264109</v>
       </c>
       <c r="C27" t="n">
         <v>0.0198312810395265</v>
       </c>
       <c r="D27" t="n">
-        <v>0.004455669952187664</v>
+        <v>0.004465683676885405</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6342,13 +6342,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02192806438501439</v>
+        <v>0.02191094563387688</v>
       </c>
       <c r="C28" t="n">
         <v>0.01974624124090074</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.002181823144113648</v>
+        <v>-0.002164704392976134</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6363,13 +6363,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02175142130539061</v>
+        <v>0.02173492331102063</v>
       </c>
       <c r="C29" t="n">
         <v>0.01959316960337438</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.002158251702016223</v>
+        <v>-0.00214175370764625</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6384,13 +6384,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01913518319348251</v>
+        <v>0.01912090722770835</v>
       </c>
       <c r="C30" t="n">
         <v>0.01950812980474862</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0003729466112661131</v>
+        <v>0.0003872225770402762</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6426,13 +6426,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01877404243587735</v>
+        <v>0.01876056209211078</v>
       </c>
       <c r="C32" t="n">
         <v>0.01944009796584802</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0006660555299706668</v>
+        <v>0.0006795358737372338</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6447,13 +6447,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01969344857105878</v>
+        <v>0.01968033897461906</v>
       </c>
       <c r="C33" t="n">
         <v>0.0192360024491462</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0004574461219125775</v>
+        <v>-0.0004443365254728597</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6468,13 +6468,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02283762677142053</v>
+        <v>0.02282029765603301</v>
       </c>
       <c r="C34" t="n">
         <v>0.0191679706102456</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.003669656161174938</v>
+        <v>-0.003652327045787409</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6489,13 +6489,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02067981727998759</v>
+        <v>0.02066478595598064</v>
       </c>
       <c r="C35" t="n">
         <v>0.01909993877134499</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.001579878508642604</v>
+        <v>-0.001564847184635655</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6510,13 +6510,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01823542488990725</v>
+        <v>0.01822390684903153</v>
       </c>
       <c r="C36" t="n">
         <v>0.01882781141574257</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0005923865258353235</v>
+        <v>0.0006039045667110381</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6531,13 +6531,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01900017520071387</v>
+        <v>0.01898617062782771</v>
       </c>
       <c r="C37" t="n">
         <v>0.01873426763725423</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0002659075634596358</v>
+        <v>-0.0002519029905734722</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01889137819505967</v>
+        <v>0.01887797344520155</v>
       </c>
       <c r="C38" t="n">
         <v>0.0186407238587659</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0002506543362937631</v>
+        <v>-0.000237249586435645</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6573,13 +6573,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02209254682256363</v>
+        <v>0.02207800651910098</v>
       </c>
       <c r="C39" t="n">
         <v>0.01855568406014015</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.003536862762423484</v>
+        <v>-0.003522322458960829</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -6615,13 +6615,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01577540187740581</v>
+        <v>0.01576432277086625</v>
       </c>
       <c r="C41" t="n">
         <v>0.01831757262398803</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002542170746582223</v>
+        <v>0.002553249853121782</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -6636,13 +6636,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01814999652931029</v>
+        <v>0.01813685417661762</v>
       </c>
       <c r="C42" t="n">
         <v>0.01830056466426288</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0001505681349525841</v>
+        <v>0.000163710487645255</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01912836205498176</v>
+        <v>0.01911485143125248</v>
       </c>
       <c r="C43" t="n">
         <v>0.01813048506701136</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0009978769879703947</v>
+        <v>-0.0009843663642411203</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -6678,13 +6678,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01943832996470227</v>
+        <v>0.01942412892722374</v>
       </c>
       <c r="C44" t="n">
         <v>0.01787536567113409</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.00156296429356818</v>
+        <v>-0.001548763256089651</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -6720,13 +6720,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01621675842891158</v>
+        <v>0.01620504740286478</v>
       </c>
       <c r="C46" t="n">
         <v>0.01779032587250834</v>
       </c>
       <c r="D46" t="n">
-        <v>0.001573567443596758</v>
+        <v>0.001585278469643552</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6741,13 +6741,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02338742692467154</v>
+        <v>0.02336716442052361</v>
       </c>
       <c r="C47" t="n">
         <v>0.01768827811415743</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.005699148810514115</v>
+        <v>-0.005678886306366183</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -6762,13 +6762,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01536817719925254</v>
+        <v>0.01535752502657592</v>
       </c>
       <c r="C48" t="n">
         <v>0.01762024627525682</v>
       </c>
       <c r="D48" t="n">
-        <v>0.002252069076004283</v>
+        <v>0.002262721248680906</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -6783,13 +6783,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01974325694960199</v>
+        <v>0.01972818730575106</v>
       </c>
       <c r="C49" t="n">
         <v>0.01760323831553167</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.002140018634070324</v>
+        <v>-0.002124948990219391</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -6804,13 +6804,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01985053190094896</v>
+        <v>0.01983602717499165</v>
       </c>
       <c r="C50" t="n">
         <v>0.01746717463773046</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.002383357263218498</v>
+        <v>-0.002368852537261185</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -6825,13 +6825,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01957104051015352</v>
+        <v>0.01955516471709241</v>
       </c>
       <c r="C51" t="n">
         <v>0.01733111095992925</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.002239929550224274</v>
+        <v>-0.002224053757163162</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -6846,13 +6846,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01731824445743758</v>
+        <v>0.01730573648691064</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01731824445743758</v>
+        <v>-0.01730573648691064</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6867,13 +6867,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01785695951430717</v>
+        <v>0.01784398992760682</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01785695951430717</v>
+        <v>-0.01784398992760682</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6888,13 +6888,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01725957462972989</v>
+        <v>0.01724670676546528</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01725957462972989</v>
+        <v>-0.01724670676546528</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -6909,13 +6909,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02033543891326728</v>
+        <v>0.0207577749592257</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02033543891326728</v>
+        <v>-0.0207577749592257</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -6930,13 +6930,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02076220672492875</v>
+        <v>0.0207459454141534</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02076220672492875</v>
+        <v>-0.0207459454141534</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -6951,13 +6951,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02010110859589804</v>
+        <v>0.02008791478938013</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02010110859589804</v>
+        <v>-0.02008791478938013</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01823836055024639</v>
+        <v>0.01822664345464357</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01823836055024639</v>
+        <v>-0.01822664345464357</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -6993,13 +6993,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01751678825405973</v>
+        <v>0.01750411854038344</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01751678825405973</v>
+        <v>-0.01750411854038344</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7014,13 +7014,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02070155652885334</v>
+        <v>0.0209679143907081</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02070155652885334</v>
+        <v>-0.0209679143907081</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7035,13 +7035,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01781745190964241</v>
+        <v>0.01780527745860568</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01781745190964241</v>
+        <v>-0.01780527745860568</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>

--- a/output/DIVIDEND/rebalance/rebalance_20250331.xlsx
+++ b/output/DIVIDEND/rebalance/rebalance_20250331.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23.32%</t>
+          <t>23.54%</t>
         </is>
       </c>
     </row>
@@ -5796,13 +5796,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.022257296523356</v>
+        <v>0.02112377474431514</v>
       </c>
       <c r="C2" t="n">
         <v>0.0232924008435948</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001035104320238806</v>
+        <v>0.002168626099279668</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01922662365619949</v>
+        <v>0.01834322045619705</v>
       </c>
       <c r="C3" t="n">
         <v>0.02306279338730526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003836169731105767</v>
+        <v>0.00471957293110821</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -5838,17 +5838,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02304122059228741</v>
+        <v>0.02243932409063414</v>
       </c>
       <c r="C4" t="n">
         <v>0.02301176950812981</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.945108415760081e-05</v>
+        <v>0.0005724454174956678</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -5880,13 +5880,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01727573216593702</v>
+        <v>0.01693617275695429</v>
       </c>
       <c r="C6" t="n">
         <v>0.02263759439417648</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005361862228239457</v>
+        <v>0.005701421637222186</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0193770013262174</v>
+        <v>0.01948414979198525</v>
       </c>
       <c r="C9" t="n">
         <v>0.02207633172324648</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002699330397029083</v>
+        <v>0.002592181931261227</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -5964,13 +5964,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0248546946336715</v>
+        <v>0.02499370577884878</v>
       </c>
       <c r="C10" t="n">
         <v>0.02195727600517042</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00289741862850108</v>
+        <v>-0.003036429773678354</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -5985,13 +5985,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0238069628733673</v>
+        <v>0.02362641298163259</v>
       </c>
       <c r="C11" t="n">
         <v>0.02173617252874345</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.002070790344623843</v>
+        <v>-0.001890240452889137</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6006,13 +6006,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02161034138510264</v>
+        <v>0.02173116786735533</v>
       </c>
       <c r="C12" t="n">
         <v>0.02143002925369073</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.000180312131411911</v>
+        <v>-0.0003011386136646046</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6027,13 +6027,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0228681296250417</v>
+        <v>0.02299541898255802</v>
       </c>
       <c r="C13" t="n">
         <v>0.02137900537451528</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.001489124250526424</v>
+        <v>-0.001616413608042742</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6090,13 +6090,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02147830225884421</v>
+        <v>0.02159696084132363</v>
       </c>
       <c r="C16" t="n">
         <v>0.02103884618001225</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0004394560788319596</v>
+        <v>-0.000558114661311386</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6111,13 +6111,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02402152504995931</v>
+        <v>0.02415574155303412</v>
       </c>
       <c r="C17" t="n">
         <v>0.02091979046193619</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.003101734588023125</v>
+        <v>-0.003235951091097929</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6153,13 +6153,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02209878110031049</v>
+        <v>0.02222250338450047</v>
       </c>
       <c r="C19" t="n">
         <v>0.02081774270358528</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.001281038396725206</v>
+        <v>-0.001404760680915187</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6174,13 +6174,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02282707811165751</v>
+        <v>0.02295431409253643</v>
       </c>
       <c r="C20" t="n">
         <v>0.02073270290495952</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.002094375206697988</v>
+        <v>-0.002221611187576911</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6195,13 +6195,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02244300097275179</v>
+        <v>0.02256781738757822</v>
       </c>
       <c r="C21" t="n">
         <v>0.02056262330770801</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.001880377665043786</v>
+        <v>-0.002005194079870213</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6216,13 +6216,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02009809378890521</v>
+        <v>0.02020884121909458</v>
       </c>
       <c r="C22" t="n">
         <v>0.02030750391183074</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0002094101229255275</v>
+        <v>9.866269273615599e-05</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6258,13 +6258,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01943382615639797</v>
+        <v>0.01954189530690552</v>
       </c>
       <c r="C24" t="n">
         <v>0.02017144023402953</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0007376140776315585</v>
+        <v>0.0006295449271240053</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02036537601387668</v>
+        <v>0.02047788881479528</v>
       </c>
       <c r="C25" t="n">
         <v>0.01998435267705286</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.00038102333682382</v>
+        <v>-0.0004935361377424174</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6300,13 +6300,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01971030257012182</v>
+        <v>0.01982019533257457</v>
       </c>
       <c r="C26" t="n">
         <v>0.01984828899925165</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0001379864291298355</v>
+        <v>2.809366667707799e-05</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6321,13 +6321,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01536559736264109</v>
+        <v>0.01506197629463026</v>
       </c>
       <c r="C27" t="n">
         <v>0.0198312810395265</v>
       </c>
       <c r="D27" t="n">
-        <v>0.004465683676885405</v>
+        <v>0.004769304744896242</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6342,13 +6342,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02191094563387688</v>
+        <v>0.02203392424832957</v>
       </c>
       <c r="C28" t="n">
         <v>0.01974624124090074</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.002164704392976134</v>
+        <v>-0.002287683007428827</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6363,13 +6363,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02173492331102063</v>
+        <v>0.02185642840706043</v>
       </c>
       <c r="C29" t="n">
         <v>0.01959316960337438</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.00214175370764625</v>
+        <v>-0.002263258803686049</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6384,13 +6384,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01912090722770835</v>
+        <v>0.0192275601512389</v>
       </c>
       <c r="C30" t="n">
         <v>0.01950812980474862</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0003872225770402762</v>
+        <v>0.0002805696535097234</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6426,13 +6426,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01876056209211078</v>
+        <v>0.01886467595150558</v>
       </c>
       <c r="C32" t="n">
         <v>0.01944009796584802</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0006795358737372338</v>
+        <v>0.0005754220143424325</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6447,13 +6447,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01968033897461906</v>
+        <v>0.01978852060921654</v>
       </c>
       <c r="C33" t="n">
         <v>0.0192360024491462</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0004443365254728597</v>
+        <v>-0.0005525181600703338</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6468,13 +6468,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02282029765603301</v>
+        <v>0.02294787763561073</v>
       </c>
       <c r="C34" t="n">
         <v>0.0191679706102456</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.003652327045787409</v>
+        <v>-0.003779907025365129</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6489,13 +6489,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02066478595598064</v>
+        <v>0.02077965110901171</v>
       </c>
       <c r="C35" t="n">
         <v>0.01909993877134499</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.001564847184635655</v>
+        <v>-0.001679712337666717</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6510,13 +6510,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01822390684903153</v>
+        <v>0.01832345817695195</v>
       </c>
       <c r="C36" t="n">
         <v>0.01882781141574257</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0006039045667110381</v>
+        <v>0.0005043532387906217</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6531,13 +6531,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01898617062782771</v>
+        <v>0.01909190039425567</v>
       </c>
       <c r="C37" t="n">
         <v>0.01873426763725423</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0002519029905734722</v>
+        <v>-0.0003576327570014338</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01887797344520155</v>
+        <v>0.0189825781604762</v>
       </c>
       <c r="C38" t="n">
         <v>0.0186407238587659</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.000237249586435645</v>
+        <v>-0.0003418543017102947</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6573,13 +6573,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02207800651910098</v>
+        <v>0.02219920074084197</v>
       </c>
       <c r="C39" t="n">
         <v>0.01855568406014015</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.003522322458960829</v>
+        <v>-0.003643516680701821</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -6615,13 +6615,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01576432277086625</v>
+        <v>0.01585155916412127</v>
       </c>
       <c r="C41" t="n">
         <v>0.01831757262398803</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002553249853121782</v>
+        <v>0.002466013459866755</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -6636,13 +6636,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01813685417661762</v>
+        <v>0.0182376174026363</v>
       </c>
       <c r="C42" t="n">
         <v>0.01830056466426288</v>
       </c>
       <c r="D42" t="n">
-        <v>0.000163710487645255</v>
+        <v>6.29472616265718e-05</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01911485143125248</v>
+        <v>0.01922070608302868</v>
       </c>
       <c r="C43" t="n">
         <v>0.01813048506701136</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0009843663642411203</v>
+        <v>-0.001090221016017315</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -6678,13 +6678,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01942412892722374</v>
+        <v>0.01953217039297761</v>
       </c>
       <c r="C44" t="n">
         <v>0.01787536567113409</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.001548763256089651</v>
+        <v>-0.001656804721843524</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -6720,13 +6720,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01620504740286478</v>
+        <v>0.01629504640730121</v>
       </c>
       <c r="C46" t="n">
         <v>0.01779032587250834</v>
       </c>
       <c r="D46" t="n">
-        <v>0.001585278469643552</v>
+        <v>0.001495279465207128</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6741,13 +6741,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02336716442052361</v>
+        <v>0.02350033200256944</v>
       </c>
       <c r="C47" t="n">
         <v>0.01768827811415743</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.005678886306366183</v>
+        <v>-0.005812053888412015</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -6762,13 +6762,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01535752502657592</v>
+        <v>0.01544236856923177</v>
       </c>
       <c r="C48" t="n">
         <v>0.01762024627525682</v>
       </c>
       <c r="D48" t="n">
-        <v>0.002262721248680906</v>
+        <v>0.002177877706025056</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -6783,13 +6783,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01972818730575106</v>
+        <v>0.01983856944255101</v>
       </c>
       <c r="C49" t="n">
         <v>0.01760323831553167</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.002124948990219391</v>
+        <v>-0.002235331127019336</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -6804,13 +6804,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01983602717499165</v>
+        <v>0.01994636227415804</v>
       </c>
       <c r="C50" t="n">
         <v>0.01746717463773046</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.002368852537261185</v>
+        <v>-0.002479187636427578</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -6825,13 +6825,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01955516471709241</v>
+        <v>0.01966552161149311</v>
       </c>
       <c r="C51" t="n">
         <v>0.01733111095992925</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.002224053757163162</v>
+        <v>-0.00233441065156386</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -6846,13 +6846,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01730573648691064</v>
+        <v>0.01740184996674905</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01730573648691064</v>
+        <v>-0.01740184996674905</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6867,13 +6867,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01784398992760682</v>
+        <v>0.01794316572294551</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01784398992760682</v>
+        <v>-0.01794316572294551</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6888,13 +6888,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01724670676546528</v>
+        <v>0.01734289690474246</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01724670676546528</v>
+        <v>-0.01734289690474246</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -6909,13 +6909,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0207577749592257</v>
+        <v>0.01999466600264659</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0207577749592257</v>
+        <v>-0.01999466600264659</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -6930,13 +6930,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0207459454141534</v>
+        <v>0.02086243829701068</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.0207459454141534</v>
+        <v>-0.02086243829701068</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -6951,13 +6951,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02008791478938013</v>
+        <v>0.02019814865247048</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02008791478938013</v>
+        <v>-0.02019814865247048</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01822664345464357</v>
+        <v>0.01832640800947686</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01822664345464357</v>
+        <v>-0.01832640800947686</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -6993,13 +6993,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01750411854038344</v>
+        <v>0.0176013522528577</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01750411854038344</v>
+        <v>-0.0176013522528577</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7014,13 +7014,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0209679143907081</v>
+        <v>0.02051809618760217</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.0209679143907081</v>
+        <v>-0.02051809618760217</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7035,13 +7035,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01780527745860568</v>
+        <v>0.01790346739147717</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01780527745860568</v>
+        <v>-0.01790346739147717</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
